--- a/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
+++ b/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="20131207需求变更" sheetId="1" r:id="rId1"/>
+    <sheet name="成品出货情况（明细导出表样）" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>计划完成时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理-分析统计-成品出货情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -83,32 +79,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>能否以本周欠货情况为负数排前?</t>
+    <t>已出仓条码查询能否改为保存可查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-分析统计-已出仓条码查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增导出明细功能，需要提供明细表样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改出仓条码查询功能，增加保存状态查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>没有办法实现，因为使用了分组统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理-分析统计-综合出货欠数表（日）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.“库存数量(板)” 应该是前一日的结余库存, 即2013-12-07的表 , 该数为12-06的计划库存结余
-2.“库存数量(板)” 名字改为 “计划结8, 综合出货欠数表（日）, 总结余(套) 的数不对. 应该是当日结余, 即库存-计划出数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品出货情况能否做导出明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已出仓条码查询能否改为保存可查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理-分析统计-已出仓条码查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -129,11 +116,61 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新增导出明细功能，需要提供明细表样</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改出仓条码查询功能，增加保存状态查询</t>
+    <t>变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否以本周欠货情况为负数排前?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-分析统计-综合出货欠数表（日）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品出货情况能否做导出明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.“库存数量(板)”应该是前一日的结余库存, 即2013-12-07的表 , 该数为12-06的计划库存结余
+2.“库存数量(板)” 名字改为 “计划结8, 综合出货欠数表（日）, 总结余(套) 的数不对. 应该是当日结余, 即库存-计划出数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改“库存数量(板)”的统计口径，并将名称改为“计划结8”
+2.修改“总结余(套)的统计口径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货日期(实际出货日期）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子架</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECIS36858</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-分析统计-成品出货情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +223,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -278,6 +326,15 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,14 +344,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,7 +670,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,7 +678,8 @@
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="39.875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -637,25 +707,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4">
         <v>41617</v>
@@ -668,16 +738,16 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <v>41617</v>
@@ -690,93 +760,115 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="4">
+        <v>41626</v>
+      </c>
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41630</v>
+      </c>
+      <c r="H6" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41630</v>
+      </c>
+      <c r="H7" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>41626</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -788,6 +880,9 @@
       <formula1>"新增,变更,删除"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E7" location="'成品出货情况（明细导出表样）'!A1" display="表样"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -795,12 +890,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="16">
+        <v>41610</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
+++ b/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
@@ -314,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +335,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,26 +365,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,7 +673,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -714,7 +717,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -738,7 +741,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
@@ -760,7 +763,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -782,17 +785,17 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -806,7 +809,7 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2"/>
@@ -817,7 +820,7 @@
         <v>41630</v>
       </c>
       <c r="H6" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -843,7 +846,7 @@
         <v>41630</v>
       </c>
       <c r="H7" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -867,7 +870,7 @@
         <v>41626</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -902,30 +905,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <v>41610</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>480</v>
       </c>
     </row>

--- a/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
+++ b/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
@@ -356,6 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,9 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -673,7 +673,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,7 +717,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -741,7 +741,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2"/>
@@ -846,7 +846,7 @@
         <v>41630</v>
       </c>
       <c r="H7" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">

--- a/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
+++ b/hot-deploy/partner/document/201308富桥新模块需求/20131207需求变更.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="20131207需求变更" sheetId="1" r:id="rId1"/>
     <sheet name="成品出货情况（明细导出表样）" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>变更</t>
-  </si>
-  <si>
-    <t>综合出货欠数表中, 二级分录中的统计逻辑：
-1.欠货情况= 库存板数-计划出仓板数
-2.库存板数 = 昨天的欠货情况 + 进货总板数 - 改版总板数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>费用（元）</t>
@@ -132,16 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.“库存数量(板)”应该是前一日的结余库存, 即2013-12-07的表 , 该数为12-06的计划库存结余
-2.“库存数量(板)” 名字改为 “计划结8, 综合出货欠数表（日）, 总结余(套) 的数不对. 应该是当日结余, 即库存-计划出数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修改“库存数量(板)”的统计口径，并将名称改为“计划结8”
-2.修改“总结余(套)的统计口径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表样</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,6 +155,72 @@
   </si>
   <si>
     <t>仓库管理-分析统计-成品出货情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改“库存数量(板)”的统计口径，并将名称改为“计划结存”
+2.修改“总结余(套)的统计口径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 改版总板数 = 改板出仓 + 改板进仓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：-10+8=2 （ 改版总板数）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            改板进仓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>改板出仓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">综合出货欠数表中, 二级分录中的统计逻辑：
+1.欠货情况= 库存板数-计划出仓板数
+2.库存板数 = 昨天的欠货情况 + 进货总板数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改版总板数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.“库存数量(板)”应该是前一日的结余库存, 即2013-12-07的表 , 该数为12-06的计划库存结余
+2.“库存数量(板)” 名字改为 “计划结存, 综合出货欠数表（日）, 总结余(套) 的数不对. 应该是当日结余, 即库存-计划出数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +277,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -314,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -359,6 +418,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,6 +443,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3695700" y="5095875"/>
+          <a:ext cx="285750" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4238625" y="5105400"/>
+          <a:ext cx="123825" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +850,7 @@
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,14 +873,17 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -736,12 +902,15 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="I2" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
@@ -758,17 +927,20 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="I3" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
@@ -780,17 +952,18 @@
       <c r="H4" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
@@ -798,23 +971,26 @@
       <c r="H5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
+      <c r="I5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
         <v>41630</v>
@@ -822,22 +998,23 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -848,19 +1025,22 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="I7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
@@ -871,6 +1051,29 @@
       </c>
       <c r="H8" s="3">
         <v>400</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -888,6 +1091,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -895,9 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -906,27 +1108,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13">
         <v>41610</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="12">
         <v>480</v>
